--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ablyz\Documents\Visual Studio 2017\Projects\University\HillClimbingAlgorithm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -51,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -59,14 +64,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -104,9 +112,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,7 +149,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -353,137 +361,185 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A1:A30"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>6.8927889181241042E-2</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.18333458031301242</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.20027492875089903</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.2407635073111084</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.24548825413041042</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.26037072274374196</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.2865249353267455</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.32152264301777345</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.33538260518124341</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.41187367060976721</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.41290541922427704</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.46012434497342691</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.47413608110526684</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.48002231911538573</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.49780744168620827</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.50536798590183729</v>
       </c>
       <c r="B16">
         <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -493,6 +549,9 @@
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -501,6 +560,9 @@
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -509,6 +571,9 @@
       <c r="B19">
         <v>0</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -517,6 +582,9 @@
       <c r="B20">
         <v>0</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -525,6 +593,9 @@
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -533,6 +604,9 @@
       <c r="B22">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -541,6 +615,9 @@
       <c r="B23">
         <v>0</v>
       </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -549,6 +626,9 @@
       <c r="B24">
         <v>0</v>
       </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -557,6 +637,9 @@
       <c r="B25">
         <v>0</v>
       </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -565,6 +648,9 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -573,6 +659,9 @@
       <c r="B27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -581,6 +670,9 @@
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -589,6 +681,9 @@
       <c r="B29">
         <v>0</v>
       </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -597,19 +692,22 @@
       <c r="B30">
         <v>1</v>
       </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32">
-        <f>SUMPRODUCT(A1:A30,B1:B30)</f>
-        <v>8.173368150141652</v>
+        <f>SUMPRODUCT(A1:A30,E1:E30)</f>
+        <v>7.8807482888640177</v>
       </c>
       <c r="D32">
-        <f t="array" ref="D32">SUMPRODUCT(A1:A30,1-B1:B30)</f>
-        <v>8.173368150141652</v>
+        <f>SUMPRODUCT(A1:A30,1-E1:E30)</f>
+        <v>8.4659880114192898</v>
       </c>
       <c r="E32">
         <f>ABS(C32-D32)</f>
-        <v>0</v>
+        <v>0.58523972255527212</v>
       </c>
     </row>
   </sheetData>
